--- a/data/ihlp_core_data.xlsx
+++ b/data/ihlp_core_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renesasgroup-my.sharepoint.com/personal/gary_kidwell_wz_renesas_com/Documents/python/charger/mathmodels/3lvlbuck/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renesasgroup-my.sharepoint.com/personal/gary_kidwell_wz_renesas_com/Documents/python/charger/mathmodels/pdis_2or3lvl_bb/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="8_{247AF56F-93CC-4D6A-B27C-89B9CEAD7EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13037844-A2D6-4C7E-8679-18207A2BB812}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="8_{247AF56F-93CC-4D6A-B27C-89B9CEAD7EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0D61DED-EC20-471F-B6E3-E64540BA5924}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="7845" windowWidth="22830" windowHeight="18345" firstSheet="1" activeTab="3" xr2:uid="{6B55D013-80A8-49D2-A1D1-956E5A60CC14}"/>
+    <workbookView xWindow="-26265" yWindow="-120" windowWidth="26385" windowHeight="14925" firstSheet="3" activeTab="9" xr2:uid="{6B55D013-80A8-49D2-A1D1-956E5A60CC14}"/>
   </bookViews>
   <sheets>
     <sheet name="ihlp2525cz01" sheetId="8" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="ihlp4040dz01" sheetId="1" r:id="rId7"/>
     <sheet name="ihlp4040dz11" sheetId="2" r:id="rId8"/>
     <sheet name="ihlp5050ce01" sheetId="3" r:id="rId9"/>
-    <sheet name="ihlp6767dz01" sheetId="4" r:id="rId10"/>
-    <sheet name="ihlp6767dz11" sheetId="5" r:id="rId11"/>
+    <sheet name="ihlp5050ez01" sheetId="12" r:id="rId10"/>
+    <sheet name="ihlp6767dz01" sheetId="4" r:id="rId11"/>
+    <sheet name="ihlp6767dz11" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="27">
   <si>
     <t>Rth</t>
   </si>
@@ -125,6 +126,9 @@
   <si>
     <t>ihlp3232cz11</t>
   </si>
+  <si>
+    <t>ihlp5050ez01</t>
+  </si>
 </sst>
 </file>
 
@@ -192,9 +196,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +236,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +342,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,7 +484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1352,6 +1356,917 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87E0E9C-6949-4238-A2BD-D62136568C91}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>118</v>
+      </c>
+      <c r="E2">
+        <v>21.62</v>
+      </c>
+      <c r="F2">
+        <v>1.85</v>
+      </c>
+      <c r="G2">
+        <v>0.17</v>
+      </c>
+      <c r="H2">
+        <v>5.79</v>
+      </c>
+      <c r="I2">
+        <v>1.6100000000000001E-3</v>
+      </c>
+      <c r="J2">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K2">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2">
+        <v>12.9</v>
+      </c>
+      <c r="N2">
+        <v>13.58</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.22</v>
+      </c>
+      <c r="B3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="C3">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>110</v>
+      </c>
+      <c r="E3">
+        <v>20.82</v>
+      </c>
+      <c r="F3">
+        <v>1.92</v>
+      </c>
+      <c r="G3">
+        <v>0.92</v>
+      </c>
+      <c r="H3">
+        <v>53.68</v>
+      </c>
+      <c r="I3">
+        <v>1.6100000000000001E-3</v>
+      </c>
+      <c r="J3">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K3">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3">
+        <v>12.9</v>
+      </c>
+      <c r="N3">
+        <v>13.58</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.33</v>
+      </c>
+      <c r="B4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>23.12</v>
+      </c>
+      <c r="F4">
+        <v>1.73</v>
+      </c>
+      <c r="G4">
+        <v>0.95</v>
+      </c>
+      <c r="H4">
+        <v>32.5</v>
+      </c>
+      <c r="I4">
+        <v>1.6100000000000001E-3</v>
+      </c>
+      <c r="J4">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K4">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <v>12.9</v>
+      </c>
+      <c r="N4">
+        <v>13.58</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.47</v>
+      </c>
+      <c r="B5">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="C5">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>21.82</v>
+      </c>
+      <c r="F5">
+        <v>1.83</v>
+      </c>
+      <c r="G5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H5">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>4.8300000000000001E-3</v>
+      </c>
+      <c r="J5">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K5">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>12.9</v>
+      </c>
+      <c r="N5">
+        <v>13.58</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B6">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>20.57</v>
+      </c>
+      <c r="F6">
+        <v>1.94</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>23.04</v>
+      </c>
+      <c r="I6">
+        <v>4.3E-3</v>
+      </c>
+      <c r="J6">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K6">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6">
+        <v>12.9</v>
+      </c>
+      <c r="N6">
+        <v>13.58</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.68</v>
+      </c>
+      <c r="B7">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>54</v>
+      </c>
+      <c r="E7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1.55</v>
+      </c>
+      <c r="H7">
+        <v>42.08</v>
+      </c>
+      <c r="I7">
+        <v>4.3E-3</v>
+      </c>
+      <c r="J7">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K7">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <v>12.9</v>
+      </c>
+      <c r="N7">
+        <v>13.58</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.82</v>
+      </c>
+      <c r="B8">
+        <v>2E-3</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>53</v>
+      </c>
+      <c r="E8">
+        <v>18.03</v>
+      </c>
+      <c r="F8">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G8">
+        <v>2.06</v>
+      </c>
+      <c r="H8">
+        <v>57.33</v>
+      </c>
+      <c r="I8">
+        <v>3.8300000000000001E-3</v>
+      </c>
+      <c r="J8">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K8">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8">
+        <v>12.9</v>
+      </c>
+      <c r="N8">
+        <v>13.58</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>19.63</v>
+      </c>
+      <c r="F9">
+        <v>2.04</v>
+      </c>
+      <c r="G9">
+        <v>1.96</v>
+      </c>
+      <c r="H9">
+        <v>41.82</v>
+      </c>
+      <c r="I9">
+        <v>3.8300000000000001E-3</v>
+      </c>
+      <c r="J9">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K9">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <v>12.9</v>
+      </c>
+      <c r="N9">
+        <v>13.58</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.5</v>
+      </c>
+      <c r="B10">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>19.27</v>
+      </c>
+      <c r="F10">
+        <v>2.08</v>
+      </c>
+      <c r="G10">
+        <v>2.88</v>
+      </c>
+      <c r="H10">
+        <v>60.16</v>
+      </c>
+      <c r="I10">
+        <v>3.0300000000000001E-3</v>
+      </c>
+      <c r="J10">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K10">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <v>12.9</v>
+      </c>
+      <c r="N10">
+        <v>13.58</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B11">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>18.84</v>
+      </c>
+      <c r="F11">
+        <v>2.12</v>
+      </c>
+      <c r="G11">
+        <v>2.91</v>
+      </c>
+      <c r="H11">
+        <v>49.82</v>
+      </c>
+      <c r="I11">
+        <v>3.0300000000000001E-3</v>
+      </c>
+      <c r="J11">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K11">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <v>12.9</v>
+      </c>
+      <c r="N11">
+        <v>13.58</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3.3</v>
+      </c>
+      <c r="B12">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2.9</v>
+      </c>
+      <c r="H12">
+        <v>41.87</v>
+      </c>
+      <c r="I12">
+        <v>3.0300000000000001E-3</v>
+      </c>
+      <c r="J12">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K12">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12">
+        <v>12.9</v>
+      </c>
+      <c r="N12">
+        <v>13.58</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4.7</v>
+      </c>
+      <c r="B13">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="F13">
+        <v>2.13</v>
+      </c>
+      <c r="G13">
+        <v>4.49</v>
+      </c>
+      <c r="H13">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="I13">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="J13">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K13">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13">
+        <v>12.9</v>
+      </c>
+      <c r="N13">
+        <v>13.58</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5.6</v>
+      </c>
+      <c r="B14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C14">
+        <v>11.5</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>18.72</v>
+      </c>
+      <c r="F14">
+        <v>2.14</v>
+      </c>
+      <c r="G14">
+        <v>5.19</v>
+      </c>
+      <c r="H14">
+        <v>55.68</v>
+      </c>
+      <c r="I14">
+        <v>2.1299999999999999E-3</v>
+      </c>
+      <c r="J14">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K14">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14">
+        <v>12.9</v>
+      </c>
+      <c r="N14">
+        <v>13.58</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6.8</v>
+      </c>
+      <c r="B15">
+        <v>1.54E-2</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F15">
+        <v>2.15</v>
+      </c>
+      <c r="G15">
+        <v>5.63</v>
+      </c>
+      <c r="H15">
+        <v>61.71</v>
+      </c>
+      <c r="I15">
+        <v>2.1299999999999999E-3</v>
+      </c>
+      <c r="J15">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K15">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <v>12.9</v>
+      </c>
+      <c r="N15">
+        <v>13.58</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7.8</v>
+      </c>
+      <c r="B16">
+        <v>1.72E-2</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="F16">
+        <v>1.98</v>
+      </c>
+      <c r="G16">
+        <v>5.65</v>
+      </c>
+      <c r="H16">
+        <v>54.15</v>
+      </c>
+      <c r="I16">
+        <v>2.1299999999999999E-3</v>
+      </c>
+      <c r="J16">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K16">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <v>12.9</v>
+      </c>
+      <c r="N16">
+        <v>13.58</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B17">
+        <v>1.89E-2</v>
+      </c>
+      <c r="C17">
+        <v>9.5</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>20.32</v>
+      </c>
+      <c r="F17">
+        <v>1.97</v>
+      </c>
+      <c r="G17">
+        <v>5.67</v>
+      </c>
+      <c r="H17">
+        <v>39.43</v>
+      </c>
+      <c r="I17">
+        <v>7.8200000000000006E-3</v>
+      </c>
+      <c r="J17">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K17">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>12.9</v>
+      </c>
+      <c r="N17">
+        <v>13.58</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>5.88</v>
+      </c>
+      <c r="H18">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="I18">
+        <v>7.8200000000000006E-3</v>
+      </c>
+      <c r="J18">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K18">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <v>12.9</v>
+      </c>
+      <c r="N18">
+        <v>13.58</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C19">
+        <v>8.25</v>
+      </c>
+      <c r="D19">
+        <v>14.5</v>
+      </c>
+      <c r="E19">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="F19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G19">
+        <v>5.69</v>
+      </c>
+      <c r="H19">
+        <v>34.19</v>
+      </c>
+      <c r="I19">
+        <v>6.9699999999999996E-3</v>
+      </c>
+      <c r="J19">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="K19">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <v>12.9</v>
+      </c>
+      <c r="N19">
+        <v>13.58</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6B4E82-5F29-4263-BF72-0349757B212F}">
   <dimension ref="A1:O20"/>
   <sheetViews>
@@ -2309,7 +3224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DD2C18-56F6-488B-AE40-4C5FC864E9A0}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -3779,7 +4694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88465A8-38E8-4A91-B975-918BA28C0BDB}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
